--- a/src/model.xlsx
+++ b/src/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoddou/Library/Application Support/Alfred/Alfred.alfredpreferences/workflows/user.workflow.1917B1CF-4453-4D67-B5D0-E1787A45E401/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3ECC2-DC6A-5D42-B645-ADF5CE65E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E6522-D9D9-6E43-A5BF-E7763EF28D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ℹ️ Click to check out the instruction on how to use the Alfred workflow</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>✅ Uses ":" to incorporate "/" in final filenames</t>
+  </si>
+  <si>
+    <t>Directories</t>
+  </si>
+  <si>
+    <t>Original filenames</t>
+  </si>
+  <si>
+    <t>Extensions</t>
   </si>
 </sst>
 </file>
@@ -411,14 +420,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
